--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Problemi Tassative (i.e. tassative con release date troppo lontana)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Problemi Tassative" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,113 +450,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252456</v>
+        <v>251849</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251849</v>
+        <v>251231</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>251790</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>251231</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>252350</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>243536</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>243526</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>243527</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>243535</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>243523</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>251685</v>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>252785</v>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>252784</v>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>252783</v>
-      </c>
-      <c r="B16" s="1" t="n">
         <v>45846.58333333334</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251849</v>
+        <v>251231</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45846.58333333334</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251231</v>
+        <v>251849</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45846.58333333334</v>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -442,18 +442,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252277</v>
+        <v>251231</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251231</v>
+        <v>252277</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45847.58333333334</v>
       </c>
     </row>
     <row r="4">

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -442,23 +442,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251231</v>
+        <v>252277</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45847.58333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252277</v>
+        <v>251849</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251849</v>
+        <v>251231</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45846.58333333334</v>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,25 +442,33 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252277</v>
+        <v>251849</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251849</v>
+        <v>252277</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45847.58333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>252284</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45846.58333333334</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>251231</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5" s="1" t="n">
         <v>45846.58333333334</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -442,18 +442,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251849</v>
+        <v>252277</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45847.58333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252277</v>
+        <v>251849</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
     <row r="4">

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -442,15 +442,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>252277</v>
+        <v>251849</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251849</v>
+        <v>252284</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45846.58333333334</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>252284</v>
+        <v>251231</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45846.58333333334</v>
@@ -466,10 +466,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251231</v>
+        <v>252277</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45847.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -442,7 +442,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251849</v>
+        <v>251231</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>45846.58333333334</v>
@@ -450,15 +450,15 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252284</v>
+        <v>252277</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45847.58333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251231</v>
+        <v>251849</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>45846.58333333334</v>
@@ -466,10 +466,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>252277</v>
+        <v>252284</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45847.58333333334</v>
+        <v>45846.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Problemi Tassative" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Problemi release date" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,34 +442,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251231</v>
+        <v>253295</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>252277</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45847.58333333334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>251849</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45846.58333333334</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>252284</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45846.58333333334</v>
+        <v>45911.58333333334</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/errori_tassative.xlsx
+++ b/PS-VRP/Dati_output/errori_tassative.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Problemi release date" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Errori" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
